--- a/data/trans_dic/P33B_R1-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R1-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.250213206419468</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3290035714267351</v>
+        <v>0.329003571426735</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2939727535617161</v>
+        <v>0.2939727535617162</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2123929688002294</v>
+        <v>0.2135950216413413</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2983428001412306</v>
+        <v>0.2967795072660336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2662723034989485</v>
+        <v>0.2679757153414472</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2894804222775749</v>
+        <v>0.2935837781030296</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3672850263904068</v>
+        <v>0.3629001688996792</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3201124631940529</v>
+        <v>0.3204612356924832</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.2493261763628007</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1980007998486098</v>
+        <v>0.1980007998486097</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1169828696247696</v>
+        <v>0.1169862360826147</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2287493715837863</v>
+        <v>0.2277473270670435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1831399412218977</v>
+        <v>0.1830112665509089</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.160218349589405</v>
+        <v>0.1596597528209701</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.270350834298433</v>
+        <v>0.2726382223379127</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2138621837815023</v>
+        <v>0.2148019017633195</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08772487200312919</v>
+        <v>0.08716798420725924</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1526897764955765</v>
+        <v>0.1526779748025295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1251386669780221</v>
+        <v>0.1252995955351751</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1243129890098295</v>
+        <v>0.1250465697495818</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1943651544485453</v>
+        <v>0.1936747655604604</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1539472542015429</v>
+        <v>0.153168852825646</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.1385377057180492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.108919668966082</v>
+        <v>0.1089196689660819</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06447456523750841</v>
+        <v>0.06546338616056979</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1187721077020669</v>
+        <v>0.1200036290391076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09555167651971656</v>
+        <v>0.09489943519158461</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1032269589443215</v>
+        <v>0.1062952531853637</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1588471944269474</v>
+        <v>0.1587045117959457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1245911770683387</v>
+        <v>0.1234349237461898</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1176203853512482</v>
+        <v>0.1170548902468687</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2021594579061846</v>
+        <v>0.2021351125218694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1640413872157268</v>
+        <v>0.1645832115338033</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1409976462354325</v>
+        <v>0.140029942635268</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2250731066499062</v>
+        <v>0.2247120379028371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1799155242926068</v>
+        <v>0.1806386222265963</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105929</v>
+        <v>106528</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>185871</v>
+        <v>184897</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>298691</v>
+        <v>300602</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>144375</v>
+        <v>146422</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>228823</v>
+        <v>226091</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>359086</v>
+        <v>359478</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>112320</v>
+        <v>112323</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>255250</v>
+        <v>254132</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>380196</v>
+        <v>379929</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>153832</v>
+        <v>153295</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>301671</v>
+        <v>304223</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>443975</v>
+        <v>445926</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>91802</v>
+        <v>91219</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>159964</v>
+        <v>159952</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>262056</v>
+        <v>262393</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>130091</v>
+        <v>130859</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>203625</v>
+        <v>202902</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>322384</v>
+        <v>320754</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>62923</v>
+        <v>63888</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>107875</v>
+        <v>108993</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>180037</v>
+        <v>178808</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>100742</v>
+        <v>103737</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>144273</v>
+        <v>144144</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>234752</v>
+        <v>232574</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>409470</v>
+        <v>407501</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>746929</v>
+        <v>746839</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1177167</v>
+        <v>1181055</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>490853</v>
+        <v>487484</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>831590</v>
+        <v>830255</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1291081</v>
+        <v>1296270</v>
       </c>
     </row>
     <row r="24">
